--- a/Collections/EURO/Austria/#EURO#Austria#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Austria/#EURO#Austria#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Austria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Austria\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -738,27 +738,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="15" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
@@ -777,7 +777,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="6" t="s">
@@ -794,7 +794,7 @@
       </c>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2005</v>
       </c>
@@ -816,7 +816,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2006</v>
       </c>
@@ -840,7 +840,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2007</v>
       </c>
@@ -863,7 +863,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2008</v>
       </c>
@@ -887,7 +887,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>2009</v>
       </c>
@@ -909,7 +909,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>2010</v>
       </c>
@@ -933,7 +933,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>2011</v>
       </c>
@@ -958,7 +958,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2012</v>
       </c>
@@ -980,7 +980,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>2013</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>2014</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>2015</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>2016</v>
       </c>
@@ -1065,14 +1065,14 @@
         <v>16000000</v>
       </c>
       <c r="F14" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>2017</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>2018</v>
       </c>
@@ -1111,14 +1111,14 @@
         <v>18100100</v>
       </c>
       <c r="F16" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>2019</v>
       </c>
@@ -1175,18 +1175,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>16</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>6</v>
       </c>

--- a/Collections/EURO/Austria/#EURO#Austria#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Austria/#EURO#Austria#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Austria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Austria\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="33">
   <si>
     <t>AT</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>High convenience set of tables table of actual coins with photos</t>
+  </si>
+  <si>
+    <t>Obv: Without mint symbol</t>
   </si>
 </sst>
 </file>
@@ -263,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -341,6 +344,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -354,9 +372,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -370,9 +385,6 @@
     <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -419,6 +431,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -742,402 +760,416 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="15" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="15" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="6" t="s">
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
         <v>2005</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11">
+      <c r="E3" s="9">
         <v>6880000</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="10">
         <v>0</v>
       </c>
-      <c r="G3" s="13" t="str">
+      <c r="G3" s="11" t="str">
         <f t="shared" ref="G3:G17" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
         <v>2006</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="13" t="str">
+      <c r="B4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
         <v>2007</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>8905000</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <v>0</v>
       </c>
-      <c r="G5" s="13" t="str">
+      <c r="G5" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
         <v>2008</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="13" t="str">
+      <c r="B6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
         <v>2009</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <v>4910000</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="10">
         <v>0</v>
       </c>
-      <c r="G7" s="13" t="str">
+      <c r="G7" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
         <v>2010</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="13" t="str">
+      <c r="B8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
         <v>2011</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="13" t="str">
+      <c r="B9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
         <v>2012</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <v>11300000</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="10">
         <v>0</v>
       </c>
-      <c r="G10" s="13" t="str">
+      <c r="G10" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
         <v>2013</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="13" t="str">
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
         <v>2014</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="13" t="str">
+      <c r="B12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
         <v>2015</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11">
+      <c r="E13" s="9">
         <v>2500000</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="10">
         <v>0</v>
       </c>
-      <c r="G13" s="13" t="str">
+      <c r="G13" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
         <v>2016</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11">
+      <c r="E14" s="9">
         <v>16000000</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="10">
         <v>1</v>
       </c>
-      <c r="G14" s="13" t="str">
+      <c r="G14" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
         <v>2017</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="13" t="str">
+      <c r="B15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
         <v>2018</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11">
+      <c r="E16" s="9">
         <v>18100100</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="10">
         <v>1</v>
       </c>
-      <c r="G16" s="13" t="str">
+      <c r="G16" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
         <v>2019</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="13" t="str">
+      <c r="B17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1179,87 +1211,87 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="21" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Collections/EURO/Austria/#EURO#Austria#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Austria/#EURO#Austria#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Austria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Austria\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -420,6 +420,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -431,12 +437,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -760,44 +760,44 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
@@ -812,14 +812,14 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2005</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="22" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="20" t="s">
@@ -836,7 +836,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2006</v>
       </c>
@@ -860,14 +860,14 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2007</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="22" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="20" t="s">
@@ -885,7 +885,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2008</v>
       </c>
@@ -909,14 +909,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>2009</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="22" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="20" t="s">
@@ -926,14 +926,14 @@
         <v>4910000</v>
       </c>
       <c r="F7" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>2010</v>
       </c>
@@ -957,7 +957,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2011</v>
       </c>
@@ -982,14 +982,14 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>2012</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="22" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="20" t="s">
@@ -1006,7 +1006,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>2013</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>2014</v>
       </c>
@@ -1054,14 +1054,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>2015</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="22" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="20" t="s">
@@ -1071,21 +1071,21 @@
         <v>2500000</v>
       </c>
       <c r="F13" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>2016</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="22" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="20" t="s">
@@ -1102,7 +1102,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>2017</v>
       </c>
@@ -1126,14 +1126,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>2018</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="22" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="20" t="s">
@@ -1150,7 +1150,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>2019</v>
       </c>
@@ -1211,14 +1211,14 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>16</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>6</v>
       </c>

--- a/Collections/EURO/Austria/#EURO#Austria#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Austria/#EURO#Austria#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
@@ -1,36 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Austria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Austria\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D49A0E7-2156-41E9-ABEA-4C610FF9E0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -45,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -65,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="34">
   <si>
     <t>AT</t>
   </si>
@@ -164,12 +174,15 @@
   </si>
   <si>
     <t>Obv: Without mint symbol</t>
+  </si>
+  <si>
+    <t>35th Anniversary - Erasmus Programme</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -442,9 +455,25 @@
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -476,16 +505,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -753,30 +782,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="13" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
@@ -795,7 +824,7 @@
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="5" t="s">
@@ -812,7 +841,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2005</v>
       </c>
@@ -829,14 +858,14 @@
         <v>6880000</v>
       </c>
       <c r="F3" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="11" t="str">
         <f t="shared" ref="G3:G17" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>2006</v>
       </c>
@@ -860,7 +889,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>2007</v>
       </c>
@@ -877,7 +906,7 @@
         <v>8905000</v>
       </c>
       <c r="F5" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="11" t="str">
         <f t="shared" si="0"/>
@@ -885,7 +914,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>2008</v>
       </c>
@@ -909,7 +938,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>2009</v>
       </c>
@@ -933,7 +962,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>2010</v>
       </c>
@@ -957,7 +986,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>2011</v>
       </c>
@@ -982,7 +1011,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>2012</v>
       </c>
@@ -999,14 +1028,14 @@
         <v>11300000</v>
       </c>
       <c r="F10" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>2013</v>
       </c>
@@ -1030,7 +1059,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>2014</v>
       </c>
@@ -1054,7 +1083,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>2015</v>
       </c>
@@ -1078,7 +1107,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>2016</v>
       </c>
@@ -1102,7 +1131,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>2017</v>
       </c>
@@ -1126,7 +1155,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>2018</v>
       </c>
@@ -1150,7 +1179,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>2019</v>
       </c>
@@ -1171,6 +1200,102 @@
       </c>
       <c r="G17" s="11" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="11" t="str">
+        <f t="shared" ref="G18:G20" si="1">IF(OR(AND(F18&gt;1,F18&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="9">
+        <v>2590000</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0</v>
+      </c>
+      <c r="G20" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="11" t="str">
+        <f t="shared" ref="G21" si="2">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1180,12 +1305,46 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F17">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3:F19">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F17">
+  <conditionalFormatting sqref="F3:F19">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1204,21 +1363,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>16</v>
       </c>
@@ -1229,7 +1388,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1240,7 +1399,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1251,7 +1410,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1262,7 +1421,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1273,7 +1432,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1284,7 +1443,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -1297,12 +1456,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2" location="svodka"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" location="svodka" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>

--- a/Collections/EURO/Austria/#EURO#Austria#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Austria/#EURO#Austria#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Austria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D49A0E7-2156-41E9-ABEA-4C610FF9E0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B2AE45-0798-46EA-81AC-4821DEAAA6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5730" yWindow="780" windowWidth="28800" windowHeight="17750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -83,9 +83,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>35th Anniversary - Erasmus Programme</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -459,6 +459,15 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -473,15 +482,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -512,9 +512,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -789,7 +789,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -810,17 +810,17 @@
         <v>1</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="27"/>
       <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>5</v>
       </c>
       <c r="G1" s="4"/>
     </row>
@@ -828,10 +828,10 @@
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>0</v>
@@ -846,13 +846,13 @@
         <v>2005</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="9">
         <v>6880000</v>
@@ -870,19 +870,19 @@
         <v>2006</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="11" t="str">
         <f t="shared" si="0"/>
@@ -894,13 +894,13 @@
         <v>2007</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="9">
         <v>8905000</v>
@@ -919,19 +919,19 @@
         <v>2008</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="11" t="str">
         <f t="shared" si="0"/>
@@ -943,13 +943,13 @@
         <v>2009</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="9">
         <v>4910000</v>
@@ -967,19 +967,19 @@
         <v>2010</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" s="11" t="str">
         <f t="shared" si="0"/>
@@ -991,19 +991,19 @@
         <v>2011</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1016,13 +1016,13 @@
         <v>2012</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="9">
         <v>11300000</v>
@@ -1040,19 +1040,19 @@
         <v>2013</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1064,19 +1064,19 @@
         <v>2014</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1088,13 +1088,13 @@
         <v>2015</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="9">
         <v>2500000</v>
@@ -1112,13 +1112,13 @@
         <v>2016</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="9">
         <v>16000000</v>
@@ -1136,19 +1136,19 @@
         <v>2017</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1160,13 +1160,13 @@
         <v>2018</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="9">
         <v>18100100</v>
@@ -1184,19 +1184,19 @@
         <v>2019</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1208,19 +1208,19 @@
         <v>2020</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18" s="11" t="str">
         <f t="shared" ref="G18:G20" si="1">IF(OR(AND(F18&gt;1,F18&lt;&gt;"-")),"Can exchange","")</f>
@@ -1232,19 +1232,19 @@
         <v>2021</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G19" s="11" t="str">
         <f t="shared" si="1"/>
@@ -1256,13 +1256,13 @@
         <v>2022</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" s="9">
         <v>2590000</v>
@@ -1280,19 +1280,19 @@
         <v>2023</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G21" s="11" t="str">
         <f t="shared" ref="G21" si="2">IF(OR(AND(F21&gt;1,F21&lt;&gt;"-")),"Can exchange","")</f>
@@ -1323,7 +1323,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1340,7 +1340,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1379,13 +1379,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1393,10 +1393,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1404,10 +1404,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1415,10 +1415,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1426,10 +1426,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1437,10 +1437,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>29</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1448,10 +1448,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
